--- a/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_per_day_fixed_period_0_sine_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_per_day_fixed_period_0_sine_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.99000000000062</v>
+        <v>25.14000000000049</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0001183938721989186</v>
+        <v>2.588805161851671e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001183938721989186</v>
+        <v>2.588805161851671e-05</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>39.95230168050077</v>
+        <v>43.60444384246517</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[19.534015292640753, 60.370588068360796]</t>
+          <t>[21.364429568137965, 65.84445811679238]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.0002801470541453632</v>
+        <v>0.0002733537664807439</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0002801470541453632</v>
+        <v>0.0002733537664807439</v>
       </c>
       <c r="P2" t="n">
-        <v>1.452868674633118</v>
+        <v>1.201289683354656</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.786184347745194, 2.1195530015210418]</t>
+          <t>[0.6352369529781168, 1.7673424137311944]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>6.805455120795223e-05</v>
+        <v>9.828815897416909e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>6.805455120795223e-05</v>
+        <v>9.828815897416909e-05</v>
       </c>
       <c r="T2" t="n">
-        <v>52.72761033346081</v>
+        <v>62.01283808085582</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[40.28298855501468, 65.17223211190694]</t>
+          <t>[49.927848215860266, 74.09782794585138]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>5.839240202476503e-11</v>
+        <v>1.834088436680759e-13</v>
       </c>
       <c r="W2" t="n">
-        <v>5.839240202476503e-11</v>
+        <v>1.834088436680759e-13</v>
       </c>
       <c r="X2" t="n">
-        <v>19.98030030030078</v>
+        <v>20.33345345345385</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.22260260260302</v>
+        <v>18.06858858858894</v>
       </c>
       <c r="Z2" t="n">
-        <v>22.73799799799854</v>
+        <v>22.59831831831876</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.99000000000062</v>
+        <v>25.14000000000049</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008489671871213522</v>
+        <v>2.610500728206233e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0008489671871213522</v>
+        <v>2.610500728206233e-05</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>35.32179089929078</v>
+        <v>44.5017367341492</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[11.477985502797416, 59.16559629578415]</t>
+          <t>[24.67775026666503, 64.32572320163337]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.004589434292994632</v>
+        <v>4.441794900400531e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>0.004589434292994632</v>
+        <v>4.441794900400531e-05</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9874475407679633</v>
+        <v>1.465447624197041</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.3459211130078854, 1.628973968528041]</t>
+          <t>[0.9245527929483472, 2.0063424554457345]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.00333225561495154</v>
+        <v>1.983180353271052e-06</v>
       </c>
       <c r="S3" t="n">
-        <v>0.00333225561495154</v>
+        <v>1.983180353271052e-06</v>
       </c>
       <c r="T3" t="n">
-        <v>48.71529460601234</v>
+        <v>49.1522728155575</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[36.42745513175946, 61.00313408026521]</t>
+          <t>[36.691291239273546, 61.61325439184146]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>3.625537647877763e-10</v>
+        <v>4.150482180165227e-10</v>
       </c>
       <c r="W3" t="n">
-        <v>3.625537647877763e-10</v>
+        <v>4.150482180165227e-10</v>
       </c>
       <c r="X3" t="n">
-        <v>21.90548548548601</v>
+        <v>19.27651651651689</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.25185185185232</v>
+        <v>17.11231231231264</v>
       </c>
       <c r="Z3" t="n">
-        <v>24.55911911911971</v>
+        <v>21.44072072072114</v>
       </c>
     </row>
     <row r="4">
@@ -737,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.99000000000062</v>
+        <v>25.14000000000049</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01924742134476642</v>
+        <v>5.000563685353399e-08</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01924742134476642</v>
+        <v>5.000563685353399e-08</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>29.14478368808733</v>
+        <v>53.64957137741292</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[4.418987589757421, 53.870579786417245]</t>
+          <t>[33.92779486894331, 73.37134788588253]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.02192055247427627</v>
+        <v>1.839657850499776e-06</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02192055247427627</v>
+        <v>1.839657850499776e-06</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3962369112635784</v>
+        <v>0.5220264069028087</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-0.6037895790683088, 1.3962634015954656]</t>
+          <t>[0.14465791998511524, 0.8993948938205021]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.4290381669965613</v>
+        <v>0.007780180144131288</v>
       </c>
       <c r="S4" t="n">
-        <v>0.4290381669965613</v>
+        <v>0.007780180144131288</v>
       </c>
       <c r="T4" t="n">
-        <v>56.05158228471362</v>
+        <v>61.24964402408007</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[42.498004119874636, 69.6051604495526]</t>
+          <t>[50.65746444169683, 71.84182360646331]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.148461326039296e-10</v>
+        <v>3.552713678800501e-15</v>
       </c>
       <c r="W4" t="n">
-        <v>1.148461326039296e-10</v>
+        <v>3.552713678800501e-15</v>
       </c>
       <c r="X4" t="n">
-        <v>24.35099099099157</v>
+        <v>23.05129129129174</v>
       </c>
       <c r="Y4" t="n">
-        <v>20.21444444444492</v>
+        <v>21.5413813813818</v>
       </c>
       <c r="Z4" t="n">
-        <v>28.48753753753822</v>
+        <v>24.56120120120168</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.99000000000062</v>
+        <v>25.14000000000049</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>8.222952057046484e-06</v>
+        <v>0.01025216557263364</v>
       </c>
       <c r="I5" t="n">
-        <v>8.222952057046484e-06</v>
+        <v>0.01025216557263364</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>48.35872461505907</v>
+        <v>29.39829065925683</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[28.51957087441157, 68.19787835570656]</t>
+          <t>[5.417132802569313, 53.37944851594434]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1.242830195802291e-05</v>
+        <v>0.01740816640052789</v>
       </c>
       <c r="O5" t="n">
-        <v>1.242830195802291e-05</v>
+        <v>0.01740816640052789</v>
       </c>
       <c r="P5" t="n">
-        <v>0.08176317216550011</v>
+        <v>0.5975001042863477</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-0.40881586082750054, 0.5723422051585008]</t>
+          <t>[-0.1823947686768843, 1.3773949772495797]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.738669340947621</v>
+        <v>0.1298193195262545</v>
       </c>
       <c r="S5" t="n">
-        <v>0.738669340947621</v>
+        <v>0.1298193195262545</v>
       </c>
       <c r="T5" t="n">
-        <v>62.27800183831245</v>
+        <v>61.70189188404225</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[50.31242545934006, 74.24357821728483]</t>
+          <t>[48.80029224126932, 74.60349152681519]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.161293283757914e-13</v>
+        <v>1.658451154185059e-12</v>
       </c>
       <c r="W5" t="n">
-        <v>1.161293283757914e-13</v>
+        <v>1.658451154185059e-12</v>
       </c>
       <c r="X5" t="n">
-        <v>25.65179179179241</v>
+        <v>22.74930930930975</v>
       </c>
       <c r="Y5" t="n">
-        <v>23.62254254254311</v>
+        <v>19.62882882882921</v>
       </c>
       <c r="Z5" t="n">
-        <v>27.68104104104171</v>
+        <v>25.86978978979029</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.91000000000014</v>
+        <v>24.23000000000035</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.076096917187243e-07</v>
+        <v>8.172932638661479e-06</v>
       </c>
       <c r="I6" t="n">
-        <v>3.076096917187243e-07</v>
+        <v>8.172932638661479e-06</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>61.83613244807471</v>
+        <v>48.82383785672109</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[39.29197760993951, 84.3802872862099]</t>
+          <t>[27.61112473011437, 70.03655098332781]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1.577096556459878e-06</v>
+        <v>3.060780112718042e-05</v>
       </c>
       <c r="O6" t="n">
-        <v>1.577096556459878e-06</v>
+        <v>3.060780112718042e-05</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.1635263443310002</v>
+        <v>0.2452895164965003</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.6037895790683088, 0.27673689040630833]</t>
+          <t>[-0.27044741562434726, 0.7610264486173479]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.458294568724213</v>
+        <v>0.3432179987819299</v>
       </c>
       <c r="S6" t="n">
-        <v>0.458294568724213</v>
+        <v>0.3432179987819299</v>
       </c>
       <c r="T6" t="n">
-        <v>63.23093766464652</v>
+        <v>62.46337300229482</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[49.44744074598533, 77.0144345833077]</t>
+          <t>[49.983144129008025, 74.9436018755816]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>5.833333815985497e-12</v>
+        <v>4.04343225568482e-13</v>
       </c>
       <c r="W6" t="n">
-        <v>5.833333815985497e-12</v>
+        <v>4.04343225568482e-13</v>
       </c>
       <c r="X6" t="n">
-        <v>0.596256256256261</v>
+        <v>23.28408408408442</v>
       </c>
       <c r="Y6" t="n">
-        <v>-1.009049049049055</v>
+        <v>21.29523523523554</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.201561561561577</v>
+        <v>25.2729329329333</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.91000000000014</v>
+        <v>24.23000000000035</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0001800456255818261</v>
+        <v>0.0006384567581843026</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0001800456255818261</v>
+        <v>0.0006384567581843026</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>34.81861068419202</v>
+        <v>35.754493620107</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[15.543591469463827, 54.09362989892022]</t>
+          <t>[12.913240167744313, 58.595747072469685]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.0007041131660241451</v>
+        <v>0.002877647959147689</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0007041131660241451</v>
+        <v>0.002877647959147689</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.1886842434588463</v>
+        <v>0.5346053564667317</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.8302106712189241, 0.4528421843012316]</t>
+          <t>[-0.10692107129334616, 1.1761317842268095]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.5565590026881653</v>
+        <v>0.1001977283572195</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5565590026881653</v>
+        <v>0.1001977283572195</v>
       </c>
       <c r="T7" t="n">
-        <v>49.55718815957393</v>
+        <v>52.26939996954284</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[38.50741573325186, 60.60696058589599]</t>
+          <t>[40.118101708064515, 64.42069823102116]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.13802300916177e-11</v>
+        <v>3.804423442943516e-11</v>
       </c>
       <c r="W7" t="n">
-        <v>1.13802300916177e-11</v>
+        <v>3.804423442943516e-11</v>
       </c>
       <c r="X7" t="n">
-        <v>0.6879879879879915</v>
+        <v>22.16838838838871</v>
       </c>
       <c r="Y7" t="n">
-        <v>-1.651171171171182</v>
+        <v>19.69445445445474</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.027147147147165</v>
+        <v>24.64232232232268</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.91000000000014</v>
+        <v>24.23000000000035</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.006920344372644105</v>
+        <v>5.114066639166914e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>0.006920344372644105</v>
+        <v>5.114066639166914e-05</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>33.13185524102973</v>
+        <v>50.89442197785667</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[5.991431793990053, 60.2722786880694]</t>
+          <t>[27.39100843474621, 74.39783552096712]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.01785487781904771</v>
+        <v>7.44269601442582e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01785487781904771</v>
+        <v>7.44269601442582e-05</v>
       </c>
       <c r="P8" t="n">
-        <v>0.4339737599553466</v>
+        <v>0.1320789704211931</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.4528421843012316, 1.3207897042119248]</t>
+          <t>[-0.4339737599553457, 0.6981317007977319]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.3295871550482017</v>
+        <v>0.6406550110187896</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3295871550482017</v>
+        <v>0.6406550110187896</v>
       </c>
       <c r="T8" t="n">
-        <v>63.58817844710961</v>
+        <v>66.15439897350153</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[49.28256405437281, 77.8937928398464]</t>
+          <t>[51.69163160565604, 80.61716634134702]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.478195343906918e-11</v>
+        <v>6.360689752682447e-12</v>
       </c>
       <c r="W8" t="n">
-        <v>1.478195343906918e-11</v>
+        <v>6.360689752682447e-12</v>
       </c>
       <c r="X8" t="n">
-        <v>21.32762762762776</v>
+        <v>23.720660660661</v>
       </c>
       <c r="Y8" t="n">
-        <v>18.09408408408419</v>
+        <v>21.53777777777809</v>
       </c>
       <c r="Z8" t="n">
-        <v>24.56117117117132</v>
+        <v>25.90354354354391</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_per_day_fixed_period_0_sine_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_per_day_fixed_period_0_sine_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.14000000000049</v>
+        <v>25.06000000000048</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>2.588805161851671e-05</v>
+        <v>1.450880759856776e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>2.588805161851671e-05</v>
+        <v>1.450880759856776e-05</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>43.60444384246517</v>
+        <v>44.98589827407874</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[21.364429568137965, 65.84445811679238]</t>
+          <t>[23.578563540619257, 66.39323300753821]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.0002733537664807439</v>
+        <v>0.0001122985705925839</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0002733537664807439</v>
+        <v>0.0001122985705925839</v>
       </c>
       <c r="P2" t="n">
-        <v>1.201289683354656</v>
+        <v>1.239026532046425</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.6352369529781168, 1.7673424137311944]</t>
+          <t>[0.6981317007977319, 1.7799213632951174]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>9.828815897416909e-05</v>
+        <v>3.28896228369846e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>9.828815897416909e-05</v>
+        <v>3.28896228369846e-05</v>
       </c>
       <c r="T2" t="n">
-        <v>62.01283808085582</v>
+        <v>51.52967491939011</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[49.927848215860266, 74.09782794585138]</t>
+          <t>[39.46112191342768, 63.59822792535254]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.834088436680759e-13</v>
+        <v>4.697153777044605e-11</v>
       </c>
       <c r="W2" t="n">
-        <v>1.834088436680759e-13</v>
+        <v>4.697153777044605e-11</v>
       </c>
       <c r="X2" t="n">
-        <v>20.33345345345385</v>
+        <v>20.11823823823863</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.06858858858894</v>
+        <v>17.96092092092127</v>
       </c>
       <c r="Z2" t="n">
-        <v>22.59831831831876</v>
+        <v>22.27555555555598</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.14000000000049</v>
+        <v>25.06000000000048</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.610500728206233e-05</v>
+        <v>1.675854901606044e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>2.610500728206233e-05</v>
+        <v>1.675854901606044e-05</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>44.5017367341492</v>
+        <v>38.12896410794983</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[24.67775026666503, 64.32572320163337]</t>
+          <t>[18.648954669115874, 57.60897354678378]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>4.441794900400531e-05</v>
+        <v>0.000279021790902334</v>
       </c>
       <c r="O3" t="n">
-        <v>4.441794900400531e-05</v>
+        <v>0.000279021790902334</v>
       </c>
       <c r="P3" t="n">
-        <v>1.465447624197041</v>
+        <v>0.6981317007977319</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.9245527929483472, 2.0063424554457345]</t>
+          <t>[0.20755266780473125, 1.1887107337907326]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.983180353271052e-06</v>
+        <v>0.006296227406531463</v>
       </c>
       <c r="S3" t="n">
-        <v>1.983180353271052e-06</v>
+        <v>0.006296227406531463</v>
       </c>
       <c r="T3" t="n">
-        <v>49.1522728155575</v>
+        <v>55.14025685358887</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[36.691291239273546, 61.61325439184146]</t>
+          <t>[45.06239753037474, 65.21811617680301]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>4.150482180165227e-10</v>
+        <v>2.287059430727822e-14</v>
       </c>
       <c r="W3" t="n">
-        <v>4.150482180165227e-10</v>
+        <v>2.287059430727822e-14</v>
       </c>
       <c r="X3" t="n">
-        <v>19.27651651651689</v>
+        <v>22.27555555555598</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.11231231231264</v>
+        <v>20.31891891891931</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.44072072072114</v>
+        <v>24.23219219219266</v>
       </c>
     </row>
     <row r="4">
@@ -737,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.14000000000049</v>
+        <v>25.06000000000048</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>5.000563685353399e-08</v>
+        <v>0.003729638824267356</v>
       </c>
       <c r="I4" t="n">
-        <v>5.000563685353399e-08</v>
+        <v>0.003729638824267356</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>53.64957137741292</v>
+        <v>34.87251795469241</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[33.92779486894331, 73.37134788588253]</t>
+          <t>[11.018634873875705, 58.72640103550912]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1.839657850499776e-06</v>
+        <v>0.005104046271683815</v>
       </c>
       <c r="O4" t="n">
-        <v>1.839657850499776e-06</v>
+        <v>0.005104046271683815</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5220264069028087</v>
+        <v>0.3459211130078854</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.14465791998511524, 0.8993948938205021]</t>
+          <t>[-0.4528421843012316, 1.1446844103170024]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.007780180144131288</v>
+        <v>0.3877026583396472</v>
       </c>
       <c r="S4" t="n">
-        <v>0.007780180144131288</v>
+        <v>0.3877026583396472</v>
       </c>
       <c r="T4" t="n">
-        <v>61.24964402408007</v>
+        <v>55.45661539408733</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[50.65746444169683, 71.84182360646331]</t>
+          <t>[41.81342016173573, 69.09981062643894]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>3.552713678800501e-15</v>
+        <v>1.845581465431678e-10</v>
       </c>
       <c r="W4" t="n">
-        <v>3.552713678800501e-15</v>
+        <v>1.845581465431678e-10</v>
       </c>
       <c r="X4" t="n">
-        <v>23.05129129129174</v>
+        <v>23.68032032032077</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.5413813813818</v>
+        <v>20.4945145145149</v>
       </c>
       <c r="Z4" t="n">
-        <v>24.56120120120168</v>
+        <v>26.86612612612664</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.14000000000049</v>
+        <v>25.06000000000048</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01025216557263364</v>
+        <v>0.01476240153944697</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01025216557263364</v>
+        <v>0.01476240153944697</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>29.39829065925683</v>
+        <v>30.88046215013465</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[5.417132802569313, 53.37944851594434]</t>
+          <t>[3.95508069908486, 57.805843601184435]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.01740816640052789</v>
+        <v>0.02553359998870008</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01740816640052789</v>
+        <v>0.02553359998870008</v>
       </c>
       <c r="P5" t="n">
-        <v>0.5975001042863477</v>
+        <v>0.3962369112635775</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-0.1823947686768843, 1.3773949772495797]</t>
+          <t>[-0.704421175579693, 1.496894998106848]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.1298193195262545</v>
+        <v>0.4721584202700333</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1298193195262545</v>
+        <v>0.4721584202700333</v>
       </c>
       <c r="T5" t="n">
-        <v>61.70189188404225</v>
+        <v>61.70970109231972</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[48.80029224126932, 74.60349152681519]</t>
+          <t>[47.57344099172039, 75.84596119291905]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.658451154185059e-12</v>
+        <v>2.495670337054889e-11</v>
       </c>
       <c r="W5" t="n">
-        <v>1.658451154185059e-12</v>
+        <v>2.495670337054889e-11</v>
       </c>
       <c r="X5" t="n">
-        <v>22.74930930930975</v>
+        <v>23.47963963964009</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.62882882882921</v>
+        <v>19.08974974975012</v>
       </c>
       <c r="Z5" t="n">
-        <v>25.86978978979029</v>
+        <v>27.86952952953006</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.23000000000035</v>
+        <v>22.22000000000003</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>8.172932638661479e-06</v>
+        <v>0.0001458575890183056</v>
       </c>
       <c r="I6" t="n">
-        <v>8.172932638661479e-06</v>
+        <v>0.0001458575890183056</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>48.82383785672109</v>
+        <v>39.77479731435508</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[27.61112473011437, 70.03655098332781]</t>
+          <t>[16.30750140922424, 63.24209321948592]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.060780112718042e-05</v>
+        <v>0.001366288373566116</v>
       </c>
       <c r="O6" t="n">
-        <v>3.060780112718042e-05</v>
+        <v>0.001366288373566116</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2452895164965003</v>
+        <v>-0.9308422677303092</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.27044741562434726, 0.7610264486173479]</t>
+          <t>[-1.496894998106849, -0.3647895373537695]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.3432179987819299</v>
+        <v>0.00183235788600844</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3432179987819299</v>
+        <v>0.00183235788600844</v>
       </c>
       <c r="T6" t="n">
-        <v>62.46337300229482</v>
+        <v>61.63968397836088</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[49.983144129008025, 74.9436018755816]</t>
+          <t>[49.417619698937635, 73.86174825778411]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>4.04343225568482e-13</v>
+        <v>3.177458296477198e-13</v>
       </c>
       <c r="W6" t="n">
-        <v>4.04343225568482e-13</v>
+        <v>3.177458296477198e-13</v>
       </c>
       <c r="X6" t="n">
-        <v>23.28408408408442</v>
+        <v>3.291851851851856</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.29523523523554</v>
+        <v>1.29005005005005</v>
       </c>
       <c r="Z6" t="n">
-        <v>25.2729329329333</v>
+        <v>5.293653653653662</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.23000000000035</v>
+        <v>22.22000000000003</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0006384567581843026</v>
+        <v>4.435563909943596e-06</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0006384567581843026</v>
+        <v>4.435563909943596e-06</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>35.754493620107</v>
+        <v>40.84811072437984</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[12.913240167744313, 58.595747072469685]</t>
+          <t>[22.710058143965817, 58.986163304793855]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.002877647959147689</v>
+        <v>4.23692139872589e-05</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002877647959147689</v>
+        <v>4.23692139872589e-05</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5346053564667317</v>
+        <v>-0.2012631930227693</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.10692107129334616, 1.1761317842268095]</t>
+          <t>[-0.69184222601577, 0.28931583997023136]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.1001977283572195</v>
+        <v>0.4129943600585493</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1001977283572195</v>
+        <v>0.4129943600585493</v>
       </c>
       <c r="T7" t="n">
-        <v>52.26939996954284</v>
+        <v>50.6460555662796</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[40.118101708064515, 64.42069823102116]</t>
+          <t>[40.140609257084584, 61.151501875474615]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>3.804423442943516e-11</v>
+        <v>1.297406626576958e-12</v>
       </c>
       <c r="W7" t="n">
-        <v>3.804423442943516e-11</v>
+        <v>1.297406626576958e-12</v>
       </c>
       <c r="X7" t="n">
-        <v>22.16838838838871</v>
+        <v>0.711751751751752</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.69445445445474</v>
+        <v>-1.023143143143145</v>
       </c>
       <c r="Z7" t="n">
-        <v>24.64232232232268</v>
+        <v>2.446646646646649</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.23000000000035</v>
+        <v>22.22000000000003</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>5.114066639166914e-05</v>
+        <v>0.001216564403654474</v>
       </c>
       <c r="I8" t="n">
-        <v>5.114066639166914e-05</v>
+        <v>0.001216564403654474</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>50.89442197785667</v>
+        <v>36.49637860381522</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[27.39100843474621, 74.39783552096712]</t>
+          <t>[14.088013876812624, 58.90474333081781]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>7.44269601442582e-05</v>
+        <v>0.002006408641748614</v>
       </c>
       <c r="O8" t="n">
-        <v>7.44269601442582e-05</v>
+        <v>0.002006408641748614</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1320789704211931</v>
+        <v>0.1446579199851161</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.4339737599553457, 0.6981317007977319]</t>
+          <t>[-0.635236952978115, 0.9245527929483472]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.6406550110187896</v>
+        <v>0.7104683785577892</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6406550110187896</v>
+        <v>0.7104683785577892</v>
       </c>
       <c r="T8" t="n">
-        <v>66.15439897350153</v>
+        <v>56.29823276236627</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[51.69163160565604, 80.61716634134702]</t>
+          <t>[42.789659417924355, 69.80680610680818]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>6.360689752682447e-12</v>
+        <v>9.27118382065828e-11</v>
       </c>
       <c r="W8" t="n">
-        <v>6.360689752682447e-12</v>
+        <v>9.27118382065828e-11</v>
       </c>
       <c r="X8" t="n">
-        <v>23.720660660661</v>
+        <v>21.70842842842846</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.53777777777809</v>
+        <v>18.95039039039042</v>
       </c>
       <c r="Z8" t="n">
-        <v>25.90354354354391</v>
+        <v>24.4664664664665</v>
       </c>
     </row>
   </sheetData>
